--- a/Docs/initial/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/initial/Lab1/Lab01_ReviewReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
   <si>
     <t xml:space="preserve">do not print this form</t>
   </si>
@@ -224,6 +224,7 @@
         <color rgb="FF000000"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">showPaymentAlert</t>
     </r>
@@ -251,6 +252,7 @@
         <color rgb="FF000000"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">addOrders</t>
     </r>
@@ -277,6 +279,9 @@
     <t xml:space="preserve">Tool used:</t>
   </si>
   <si>
+    <t xml:space="preserve">SonarLint</t>
+  </si>
+  <si>
     <t xml:space="preserve">File, Line</t>
   </si>
   <si>
@@ -287,6 +292,59 @@
   </si>
   <si>
     <t xml:space="preserve">After/Argument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaymentAlert.java
+46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result.isPresent() not called before .get()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (result.get() == cardPayment) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (result.isPresent() &amp;&amp; result.get() == cardPayment) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaymentType.java
+4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unconventional enum names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash,Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH,CARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuRepository.java
+23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BufferedReader might not be closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try {
+            br = new BufferedReader(new FileReader(file));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try (BufferedReader br = new BufferedReader(new FileReader(file))){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KitchenGUIController.java
+13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter not specified for parametrized class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private ListView kitchenOrdersList;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private ListView&lt;String&gt; kitchenOrdersList;</t>
   </si>
   <si>
     <t xml:space="preserve">Effort to perform tool-based code analysis (hours):</t>
@@ -371,17 +429,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -472,140 +531,144 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -682,7 +745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFCCC1DA"/>
     <pageSetUpPr fitToPage="false"/>
@@ -696,9 +759,9 @@
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.74"/>
@@ -795,19 +858,19 @@
         <v>17</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="R7" s="0"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -815,13 +878,13 @@
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -830,13 +893,13 @@
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -845,13 +908,13 @@
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -860,13 +923,13 @@
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -875,36 +938,36 @@
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="n">
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="n">
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="n">
@@ -913,7 +976,7 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
@@ -922,7 +985,7 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
@@ -931,7 +994,7 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
@@ -940,7 +1003,7 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="17"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
@@ -949,7 +1012,7 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="17"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
@@ -958,7 +1021,7 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="17"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
@@ -967,7 +1030,7 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
@@ -976,17 +1039,17 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="17"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="18"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1000,8 +1063,8 @@
     <mergeCell ref="D7:E7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1010,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFCD5B5"/>
     <pageSetUpPr fitToPage="false"/>
@@ -1024,10 +1087,10 @@
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.74"/>
@@ -1072,13 +1135,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="23"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1090,13 +1153,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1125,16 +1188,16 @@
       <c r="E7" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1142,13 +1205,13 @@
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1157,13 +1220,13 @@
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1172,13 +1235,13 @@
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1187,13 +1250,13 @@
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1202,13 +1265,13 @@
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1217,13 +1280,13 @@
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1232,13 +1295,13 @@
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1247,100 +1310,100 @@
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
         <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
         <f aca="false">B19+1</f>
         <v>11</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
         <f aca="false">B20+1</f>
         <v>12</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <f aca="false">B21+1</f>
         <v>13</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
         <f aca="false">B22+1</f>
         <v>14</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
         <f aca="false">B23+1</f>
         <v>15</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
         <f aca="false">B24+1</f>
         <v>16</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6" t="n">
         <f aca="false">B25+1</f>
         <v>17</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="18"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1354,8 +1417,8 @@
     <mergeCell ref="D7:E7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1364,24 +1427,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF8EB4E3"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.84"/>
@@ -1426,13 +1489,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="27"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1444,13 +1507,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1479,16 +1542,16 @@
       <c r="E7" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1496,13 +1559,13 @@
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1511,13 +1574,13 @@
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1526,13 +1589,13 @@
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1541,13 +1604,13 @@
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1556,13 +1619,13 @@
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1571,154 +1634,154 @@
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="n">
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
         <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
         <f aca="false">B19+1</f>
         <v>11</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
         <f aca="false">B20+1</f>
         <v>12</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <f aca="false">B21+1</f>
         <v>13</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
         <f aca="false">B22+1</f>
         <v>14</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
         <f aca="false">B23+1</f>
         <v>15</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
         <f aca="false">B24+1</f>
         <v>16</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6" t="n">
         <f aca="false">B25+1</f>
         <v>17</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6" t="n">
         <f aca="false">B26+1</f>
         <v>18</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6" t="n">
         <f aca="false">B27+1</f>
         <v>19</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="n">
         <f aca="false">B28+1</f>
         <v>20</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6" t="n">
         <f aca="false">B29+1</f>
         <v>21</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="18"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1732,8 +1795,8 @@
     <mergeCell ref="D7:E7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1742,25 +1805,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFEBF1DE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="54.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.74"/>
@@ -1805,11 +1868,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="27"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1824,7 +1889,9 @@
       <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="H5" s="6" t="s">
         <v>13</v>
@@ -1845,241 +1912,273 @@
       <c r="E6" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="n">
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="n">
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="n">
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="n">
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="n">
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="n">
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
         <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
         <f aca="false">B19+1</f>
         <v>11</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
         <f aca="false">B20+1</f>
         <v>12</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <f aca="false">B21+1</f>
         <v>13</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
         <f aca="false">B22+1</f>
         <v>14</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
         <f aca="false">B23+1</f>
         <v>15</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
         <f aca="false">B24+1</f>
         <v>16</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6" t="n">
         <f aca="false">B25+1</f>
         <v>17</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6" t="n">
         <f aca="false">B26+1</f>
         <v>18</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6" t="n">
         <f aca="false">B27+1</f>
         <v>19</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="n">
         <f aca="false">B28+1</f>
         <v>20</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6" t="n">
         <f aca="false">B29+1</f>
         <v>21</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="18"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
+      <c r="C32" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2091,8 +2190,8 @@
     <mergeCell ref="C32:E32"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Docs/initial/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/initial/Lab1/Lab01_ReviewReport.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
   <si>
     <t xml:space="preserve">do not print this form</t>
   </si>
@@ -345,6 +345,44 @@
   </si>
   <si>
     <t xml:space="preserve">private ListView&lt;String&gt; kitchenOrdersList;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainGUIController.java
+56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public MainGUIController(){}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(deleted)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdersGUIController.java
+107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static method called through an instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this.getTotalAmount()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdersGUIController.getTotalAmount()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System.out used instad of dedicated logger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System.out.println("Incasari cash: "+service.getTotalAmount(PaymentType.Cash));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log.info("Incasari cash: "+service.getTotalAmount(PaymentType.Cash));</t>
   </si>
   <si>
     <t xml:space="preserve">Effort to perform tool-based code analysis (hours):</t>
@@ -1435,7 +1473,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1812,8 +1850,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1999,35 +2037,59 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="n">
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="n">
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="C16" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="n">
@@ -2174,7 +2236,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="33" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
